--- a/saved_excel/Single_Extracted_statements_file_new.xlsx
+++ b/saved_excel/Single_Extracted_statements_file_new.xlsx
@@ -4351,25 +4351,25 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1525270.51</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1525270.51</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1525270.51</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>658749.5266666667</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>658749.5266666667</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>658749.5266666667</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6552060.109999999</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -4377,48 +4377,30 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1092010.018333333</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1092010.018333333</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1092010.018333333</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1092010.018333333</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1092010.018333333</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1092010.018333333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6552060.11</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" t="s">
         <v>33</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
